--- a/natmiOut/OldD0/LR-pairs_lrc2p/Ccl25-Ackr4.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Ccl25-Ackr4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,57 +528,57 @@
         <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.26463766184903</v>
+        <v>4.528161333333333</v>
       </c>
       <c r="H2">
-        <v>4.26463766184903</v>
+        <v>13.584484</v>
       </c>
       <c r="I2">
-        <v>0.3160035842658407</v>
+        <v>0.3225352762763812</v>
       </c>
       <c r="J2">
-        <v>0.3160035842658407</v>
+        <v>0.3225352762763812</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.87798191611927</v>
+        <v>1.890486333333333</v>
       </c>
       <c r="N2">
-        <v>1.87798191611927</v>
+        <v>5.671459</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.9442400689667343</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.9442400689667344</v>
       </c>
       <c r="Q2">
-        <v>8.008912407753645</v>
+        <v>8.560427115795111</v>
       </c>
       <c r="R2">
-        <v>8.008912407753645</v>
+        <v>77.04384404215601</v>
       </c>
       <c r="S2">
-        <v>0.3160035842658407</v>
+        <v>0.3045507315154149</v>
       </c>
       <c r="T2">
-        <v>0.3160035842658407</v>
+        <v>0.304550731515415</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>23</v>
@@ -587,60 +587,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.10005712551939</v>
+        <v>4.528161333333333</v>
       </c>
       <c r="H3">
-        <v>6.10005712551939</v>
+        <v>13.584484</v>
       </c>
       <c r="I3">
-        <v>0.4520055556266734</v>
+        <v>0.3225352762763812</v>
       </c>
       <c r="J3">
-        <v>0.4520055556266734</v>
+        <v>0.3225352762763812</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>1.87798191611927</v>
+        <v>0.1116383333333333</v>
       </c>
       <c r="N3">
-        <v>1.87798191611927</v>
+        <v>0.334915</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.05575993103326565</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.05575993103326566</v>
       </c>
       <c r="Q3">
-        <v>11.45579696901991</v>
+        <v>0.5055163843177778</v>
       </c>
       <c r="R3">
-        <v>11.45579696901991</v>
+        <v>4.54964745886</v>
       </c>
       <c r="S3">
-        <v>0.4520055556266734</v>
+        <v>0.0179845447609663</v>
       </c>
       <c r="T3">
-        <v>0.4520055556266734</v>
+        <v>0.0179845447609663</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -652,52 +652,238 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.13084094130663</v>
+        <v>6.270951666666666</v>
       </c>
       <c r="H4">
-        <v>3.13084094130663</v>
+        <v>18.812855</v>
       </c>
       <c r="I4">
-        <v>0.2319908601074858</v>
+        <v>0.4466720550425397</v>
       </c>
       <c r="J4">
-        <v>0.2319908601074858</v>
+        <v>0.4466720550425397</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.87798191611927</v>
+        <v>1.890486333333333</v>
       </c>
       <c r="N4">
-        <v>1.87798191611927</v>
+        <v>5.671459</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.9442400689667343</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.9442400689667344</v>
       </c>
       <c r="Q4">
-        <v>5.879662670019684</v>
+        <v>11.85514842282722</v>
       </c>
       <c r="R4">
-        <v>5.879662670019684</v>
+        <v>106.696335805445</v>
       </c>
       <c r="S4">
-        <v>0.2319908601074858</v>
+        <v>0.4217656520588806</v>
       </c>
       <c r="T4">
-        <v>0.2319908601074858</v>
+        <v>0.4217656520588807</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>6.270951666666666</v>
+      </c>
+      <c r="H5">
+        <v>18.812855</v>
+      </c>
+      <c r="I5">
+        <v>0.4466720550425397</v>
+      </c>
+      <c r="J5">
+        <v>0.4466720550425397</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M5">
+        <v>0.1116383333333333</v>
+      </c>
+      <c r="N5">
+        <v>0.334915</v>
+      </c>
+      <c r="O5">
+        <v>0.05575993103326565</v>
+      </c>
+      <c r="P5">
+        <v>0.05575993103326566</v>
+      </c>
+      <c r="Q5">
+        <v>0.7000785924805555</v>
+      </c>
+      <c r="R5">
+        <v>6.300707332325</v>
+      </c>
+      <c r="S5">
+        <v>0.02490640298365905</v>
+      </c>
+      <c r="T5">
+        <v>0.02490640298365906</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>3.240161666666667</v>
+      </c>
+      <c r="H6">
+        <v>9.720485</v>
+      </c>
+      <c r="I6">
+        <v>0.2307926686810791</v>
+      </c>
+      <c r="J6">
+        <v>0.2307926686810791</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1.890486333333333</v>
+      </c>
+      <c r="N6">
+        <v>5.671459</v>
+      </c>
+      <c r="O6">
+        <v>0.9442400689667343</v>
+      </c>
+      <c r="P6">
+        <v>0.9442400689667344</v>
+      </c>
+      <c r="Q6">
+        <v>6.125481348623889</v>
+      </c>
+      <c r="R6">
+        <v>55.129332137615</v>
+      </c>
+      <c r="S6">
+        <v>0.2179236853924388</v>
+      </c>
+      <c r="T6">
+        <v>0.2179236853924388</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>3.240161666666667</v>
+      </c>
+      <c r="H7">
+        <v>9.720485</v>
+      </c>
+      <c r="I7">
+        <v>0.2307926686810791</v>
+      </c>
+      <c r="J7">
+        <v>0.2307926686810791</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M7">
+        <v>0.1116383333333333</v>
+      </c>
+      <c r="N7">
+        <v>0.334915</v>
+      </c>
+      <c r="O7">
+        <v>0.05575993103326565</v>
+      </c>
+      <c r="P7">
+        <v>0.05575993103326566</v>
+      </c>
+      <c r="Q7">
+        <v>0.3617262481972223</v>
+      </c>
+      <c r="R7">
+        <v>3.255536233775</v>
+      </c>
+      <c r="S7">
+        <v>0.0128689832886403</v>
+      </c>
+      <c r="T7">
+        <v>0.0128689832886403</v>
       </c>
     </row>
   </sheetData>
